--- a/预推免院校/汇总.xlsx
+++ b/预推免院校/汇总.xlsx
@@ -459,7 +459,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,6 +474,7 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1087,23 +1087,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1127,14 +1130,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1142,13 +1151,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1160,6 +1172,18 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1181,9 +1205,6 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1194,6 +1215,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1510,7 +1534,7 @@
   <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1525,1600 +1549,1600 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="8">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="11">
         <v>45840</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="13">
         <v>20263300215</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="8"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:13">
-      <c r="A3" s="13">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="16">
         <v>45842</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="16">
         <v>45900</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="8">
+      <c r="A4" s="9">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="11">
         <v>45848</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="11">
         <v>45918</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="8"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:13">
-      <c r="A5" s="13">
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:13">
+      <c r="A5" s="18">
         <v>5</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="14" t="s">
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:13">
-      <c r="A6" s="13">
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:13">
+      <c r="A6" s="18">
         <v>6</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16" t="s">
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:13">
-      <c r="A7" s="13">
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:13">
+      <c r="A7" s="18">
         <v>7</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="22">
         <v>45874</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="22">
         <v>45897</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="19">
         <v>20263300074</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="1:13">
-      <c r="A8" s="19">
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:13">
+      <c r="A8" s="23">
         <v>8</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="25">
         <v>45864</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="25">
         <v>45920</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="26">
         <v>26002158</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="8">
+      <c r="A9" s="9">
         <v>9</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="27">
         <v>45867</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="27">
         <v>45879</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="13">
         <v>20263308927</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="35" t="s">
+      <c r="J9" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:13">
-      <c r="A10" s="13">
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" s="4" customFormat="1" spans="1:13">
+      <c r="A10" s="28">
         <v>10</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="30">
         <v>45857</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="30">
         <v>45901</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="8">
+      <c r="A11" s="9">
         <v>11</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12" t="s">
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="8"/>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="1:13">
-      <c r="A12" s="24">
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" s="5" customFormat="1" spans="1:13">
+      <c r="A12" s="32">
         <v>12</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="27" t="s">
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="25" t="s">
+      <c r="J12" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-    </row>
-    <row r="13" s="4" customFormat="1" spans="1:13">
-      <c r="A13" s="28">
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+    </row>
+    <row r="13" s="6" customFormat="1" spans="1:13">
+      <c r="A13" s="36">
         <v>13</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29">
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37">
         <v>20263301375</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="33" t="s">
+      <c r="J13" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="8">
+      <c r="A14" s="9">
         <v>14</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="11">
         <v>45871</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="11">
         <v>45919</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="13">
         <v>20262200196</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="8">
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" s="5" customFormat="1" spans="1:13">
+      <c r="A15" s="32">
         <v>15</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="34">
         <v>45839</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="34">
         <v>45910</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="8">
+      <c r="A16" s="9">
         <v>16</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="38">
         <v>45855</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="38">
         <v>45897</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="9">
         <v>202601506</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="8">
+      <c r="A17" s="9">
         <v>17</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="38">
         <v>45886</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="38">
         <v>45916</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="9">
         <v>20263312838</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="8">
+      <c r="A18" s="9">
         <v>18</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="17" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="17" t="s">
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="8">
+      <c r="A19" s="9">
         <v>19</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="38">
         <v>45901</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="38">
         <v>45915</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="8">
+      <c r="A20" s="9">
         <v>20</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8" t="s">
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-    </row>
-    <row r="21" s="5" customFormat="1" spans="1:13">
-      <c r="A21" s="31">
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+    </row>
+    <row r="21" s="3" customFormat="1" spans="1:13">
+      <c r="A21" s="23">
         <v>21</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="39">
         <v>45903</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="39">
         <v>45912</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="19" t="s">
+      <c r="I21" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="J21" s="20" t="s">
+      <c r="J21" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="8">
+      <c r="A22" s="9">
         <v>19</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="38">
         <v>45901</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="38">
         <v>45915</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="8">
+      <c r="A23" s="9">
         <v>19</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="38">
         <v>45901</v>
       </c>
-      <c r="G23" s="30">
+      <c r="G23" s="38">
         <v>45915</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="8">
+      <c r="A24" s="9">
         <v>24</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="30">
+      <c r="F24" s="38">
         <v>45871</v>
       </c>
-      <c r="G24" s="30">
+      <c r="G24" s="38">
         <v>45903</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="9">
         <v>20253305016</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-    </row>
-    <row r="25" s="4" customFormat="1" spans="1:13">
-      <c r="A25" s="28">
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+    </row>
+    <row r="25" s="6" customFormat="1" spans="1:13">
+      <c r="A25" s="36">
         <v>25</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25" s="41">
         <v>45894</v>
       </c>
-      <c r="G25" s="34">
+      <c r="G25" s="41">
         <v>45912</v>
       </c>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-    </row>
-    <row r="26" s="4" customFormat="1" spans="1:13">
-      <c r="A26" s="28">
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+    </row>
+    <row r="26" s="6" customFormat="1" spans="1:13">
+      <c r="A26" s="36">
         <v>26</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28" t="s">
+      <c r="C26" s="36"/>
+      <c r="D26" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="F26" s="34">
+      <c r="F26" s="41">
         <v>45890</v>
       </c>
-      <c r="G26" s="34">
+      <c r="G26" s="41">
         <v>45919</v>
       </c>
-      <c r="H26" s="28" t="s">
+      <c r="H26" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="I26" s="28" t="s">
+      <c r="I26" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="33" t="s">
+      <c r="J26" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="8">
+      <c r="A27" s="9">
         <v>27</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F27" s="30">
+      <c r="F27" s="38">
         <v>45902</v>
       </c>
-      <c r="G27" s="30">
+      <c r="G27" s="38">
         <v>45915</v>
       </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-    </row>
-    <row r="28" s="4" customFormat="1" spans="1:13">
-      <c r="A28" s="28">
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+    </row>
+    <row r="28" s="6" customFormat="1" spans="1:13">
+      <c r="A28" s="36">
         <v>28</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="33" t="s">
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="8">
+      <c r="A29" s="9">
         <v>29</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="F29" s="30">
+      <c r="F29" s="38">
         <v>45902</v>
       </c>
-      <c r="G29" s="30">
+      <c r="G29" s="38">
         <v>45915</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="I29" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="17" t="s">
+      <c r="J29" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="8">
+      <c r="A30" s="9">
         <v>30</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="17" t="s">
+      <c r="D30" s="9"/>
+      <c r="E30" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="F30" s="30">
+      <c r="F30" s="38">
         <v>45902</v>
       </c>
-      <c r="G30" s="30">
+      <c r="G30" s="38">
         <v>45910</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I30" s="8" t="s">
+      <c r="I30" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="17" t="s">
+      <c r="J30" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="8">
+      <c r="A31" s="9">
         <v>31</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="8">
+      <c r="A32" s="9">
         <v>32</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="8">
+      <c r="A33" s="9">
         <v>33</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="8">
+      <c r="A34" s="9">
         <v>34</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="8"/>
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
-      <c r="M64" s="8"/>
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
-      <c r="M68" s="8"/>
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
-      <c r="M69" s="8"/>
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
     </row>
     <row r="70" spans="1:13">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
-      <c r="M70" s="8"/>
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/预推免院校/汇总.xlsx
+++ b/预推免院校/汇总.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="172">
   <si>
     <t>序号</t>
   </si>
@@ -432,6 +432,9 @@
     <t>https://yjszs.hfut.edu.cn/2025/0902/c13526a314363/page.htm</t>
   </si>
   <si>
+    <t>https://yzbm.hfut.edu.cn/logon</t>
+  </si>
+  <si>
     <t>河海大学</t>
   </si>
   <si>
@@ -547,6 +550,18 @@
   </si>
   <si>
     <t>https://yz.njnu.edu.cn/pages/sstm/sstm_regSuccess.jsp?dt=1757500654759</t>
+  </si>
+  <si>
+    <t>江南大学</t>
+  </si>
+  <si>
+    <t>人工智能与计算机学院</t>
+  </si>
+  <si>
+    <t>https://yz.jiangnan.edu.cn/info/1012/3674.htm</t>
+  </si>
+  <si>
+    <t>http://yzgmis.jiangnan.edu.cn/zsgl/tmsgl/result.aspx</t>
   </si>
 </sst>
 </file>
@@ -1797,8 +1812,8 @@
   <sheetPr/>
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2895,7 +2910,9 @@
       <c r="I32" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="J32" s="41"/>
+      <c r="J32" s="48" t="s">
+        <v>128</v>
+      </c>
       <c r="K32" s="41"/>
       <c r="L32" s="41"/>
       <c r="M32" s="41"/>
@@ -2905,7 +2922,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C33" s="21" t="s">
         <v>34</v>
@@ -2914,7 +2931,7 @@
         <v>15</v>
       </c>
       <c r="E33" s="56" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F33" s="55">
         <v>45905</v>
@@ -2929,7 +2946,7 @@
         <v>18</v>
       </c>
       <c r="J33" s="56" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K33" s="21" t="s">
         <v>20</v>
@@ -2947,11 +2964,11 @@
         <v>64</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="48" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F34" s="47">
         <v>45880</v>
@@ -2960,13 +2977,13 @@
         <v>45910</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I34" s="12" t="s">
         <v>18</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
@@ -2977,10 +2994,10 @@
         <v>35</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D35" s="21" t="s">
         <v>15</v>
@@ -2995,13 +3012,13 @@
         <v>18</v>
       </c>
       <c r="J35" s="22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K35" s="21" t="s">
         <v>20</v>
       </c>
       <c r="L35" s="21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M35" s="21"/>
     </row>
@@ -3010,16 +3027,16 @@
         <v>36</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F36" s="47">
         <v>45904</v>
@@ -3034,7 +3051,7 @@
         <v>18</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K36" s="12"/>
       <c r="L36" s="12"/>
@@ -3045,10 +3062,10 @@
         <v>37</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>15</v>
@@ -3063,7 +3080,7 @@
         <v>18</v>
       </c>
       <c r="J37" s="48" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
@@ -3074,16 +3091,16 @@
         <v>38</v>
       </c>
       <c r="B38" s="41" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D38" s="41" t="s">
         <v>105</v>
       </c>
       <c r="E38" s="52" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F38" s="53">
         <v>45896</v>
@@ -3098,7 +3115,7 @@
         <v>18</v>
       </c>
       <c r="J38" s="52" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K38" s="41"/>
       <c r="L38" s="41"/>
@@ -3109,16 +3126,16 @@
         <v>39</v>
       </c>
       <c r="B39" s="41" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D39" s="41" t="s">
         <v>105</v>
       </c>
       <c r="E39" s="52" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F39" s="53">
         <v>45907</v>
@@ -3133,7 +3150,7 @@
         <v>18</v>
       </c>
       <c r="J39" s="52" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K39" s="41"/>
       <c r="L39" s="41"/>
@@ -3144,16 +3161,16 @@
         <v>40</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E40" s="48" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F40" s="47">
         <v>45904</v>
@@ -3173,7 +3190,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="41" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C41" s="41" t="s">
         <v>29</v>
@@ -3182,7 +3199,7 @@
         <v>105</v>
       </c>
       <c r="E41" s="52" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F41" s="53">
         <v>45909</v>
@@ -3194,7 +3211,7 @@
         <v>202602944</v>
       </c>
       <c r="I41" s="52" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J41" s="41"/>
       <c r="K41" s="41"/>
@@ -3206,7 +3223,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>37</v>
@@ -3214,8 +3231,8 @@
       <c r="D42" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="48" t="s">
-        <v>161</v>
+      <c r="E42" s="13" t="s">
+        <v>162</v>
       </c>
       <c r="F42" s="47">
         <v>45908</v>
@@ -3225,8 +3242,8 @@
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
-      <c r="J42" s="48" t="s">
-        <v>162</v>
+      <c r="J42" s="13" t="s">
+        <v>163</v>
       </c>
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
@@ -3237,16 +3254,16 @@
         <v>43</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E43" s="48" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F43" s="47">
         <v>45910</v>
@@ -3261,7 +3278,7 @@
         <v>18</v>
       </c>
       <c r="J43" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K43" s="12"/>
       <c r="L43" s="12"/>
@@ -3271,15 +3288,33 @@
       <c r="A44" s="12">
         <v>44</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
+      <c r="B44" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="F44" s="47">
+        <v>45909</v>
+      </c>
+      <c r="G44" s="47">
+        <v>45922</v>
+      </c>
+      <c r="H44" s="12">
+        <v>202601040</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J44" s="48" t="s">
+        <v>171</v>
+      </c>
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
       <c r="M44" s="12"/>
@@ -3760,6 +3795,9 @@
     <hyperlink ref="E42" r:id="rId68" display="https://cstc.hrbeu.edu.cn/2025/0908/c3688a340748/page.htm"/>
     <hyperlink ref="E43" r:id="rId69" display="https://ceai.njnu.edu.cn/info/1551/18741.htm"/>
     <hyperlink ref="J43" r:id="rId70" display="https://yz.njnu.edu.cn/pages/sstm/sstm_regSuccess.jsp?dt=1757500654759"/>
+    <hyperlink ref="J44" r:id="rId71" display="http://yzgmis.jiangnan.edu.cn/zsgl/tmsgl/result.aspx"/>
+    <hyperlink ref="E44" r:id="rId72" display="https://yz.jiangnan.edu.cn/info/1012/3674.htm"/>
+    <hyperlink ref="J32" r:id="rId73" display="https://yzbm.hfut.edu.cn/logon"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/预推免院校/汇总.xlsx
+++ b/预推免院校/汇总.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12960"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="175">
   <si>
     <t>序号</t>
   </si>
@@ -562,6 +562,15 @@
   </si>
   <si>
     <t>http://yzgmis.jiangnan.edu.cn/zsgl/tmsgl/result.aspx</t>
+  </si>
+  <si>
+    <t>东华大学</t>
+  </si>
+  <si>
+    <t>东华大学研究生报考服务系统</t>
+  </si>
+  <si>
+    <t>西南交通大学</t>
   </si>
 </sst>
 </file>
@@ -1812,19 +1821,19 @@
   <sheetPr/>
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="17.7916666666667" customWidth="1"/>
-    <col min="3" max="3" width="31.0416666666667" customWidth="1"/>
+    <col min="2" max="2" width="17.7909090909091" customWidth="1"/>
+    <col min="3" max="3" width="31.0454545454545" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="51.8083333333333" customWidth="1"/>
-    <col min="6" max="6" width="17.4833333333333" customWidth="1"/>
-    <col min="7" max="7" width="16.7833333333333" customWidth="1"/>
-    <col min="8" max="8" width="14.125"/>
+    <col min="5" max="5" width="51.8090909090909" customWidth="1"/>
+    <col min="6" max="6" width="17.4818181818182" customWidth="1"/>
+    <col min="7" max="7" width="16.7818181818182" customWidth="1"/>
+    <col min="8" max="8" width="14.1272727272727"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -3323,15 +3332,27 @@
       <c r="A45" s="12">
         <v>45</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
+      <c r="B45" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
+      <c r="H45" s="12">
+        <v>20263309395</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J45" t="s">
+        <v>173</v>
+      </c>
       <c r="K45" s="12"/>
       <c r="L45" s="12"/>
       <c r="M45" s="12"/>
@@ -3340,9 +3361,15 @@
       <c r="A46" s="12">
         <v>46</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
+      <c r="B46" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
@@ -3798,6 +3825,7 @@
     <hyperlink ref="J44" r:id="rId71" display="http://yzgmis.jiangnan.edu.cn/zsgl/tmsgl/result.aspx"/>
     <hyperlink ref="E44" r:id="rId72" display="https://yz.jiangnan.edu.cn/info/1012/3674.htm"/>
     <hyperlink ref="J32" r:id="rId73" display="https://yzbm.hfut.edu.cn/logon"/>
+    <hyperlink ref="J45" r:id="rId74" display="东华大学研究生报考服务系统" tooltip="https://yzbm.dhu.edu.cn/logon"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3814,7 +3842,7 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3831,7 +3859,7 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/预推免院校/汇总.xlsx
+++ b/预推免院校/汇总.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="28800" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="168">
   <si>
     <t>序号</t>
   </si>
@@ -82,24 +82,7 @@
     <t>https://scst.suda.edu.cn/33/30/c29555a668464/page.htm</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2025-08-13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
+    <t>2025-08-13 </t>
   </si>
   <si>
     <t>PSMM,,</t>
@@ -384,6 +367,9 @@
     <t>https://yz.swu.edu.cn/info/1005/3364.htm</t>
   </si>
   <si>
+    <t>http://swu.yjszsw.cn/tm/</t>
+  </si>
+  <si>
     <t>东北大学</t>
   </si>
   <si>
@@ -487,30 +473,6 @@
   </si>
   <si>
     <t>https://ehall.szu.edu.cn/geapp/sys/sdyjszsxt/*default/index.do#/xlysq</t>
-  </si>
-  <si>
-    <t>复旦大学</t>
-  </si>
-  <si>
-    <t>未来信息创新学院</t>
-  </si>
-  <si>
-    <t>http://www.it.fudan.edu.cn/Data/View/4900</t>
-  </si>
-  <si>
-    <t>https://gsas.fudan.edu.cn/tm/tm/index</t>
-  </si>
-  <si>
-    <t>北京外国语大学</t>
-  </si>
-  <si>
-    <t>信息科学技术学院</t>
-  </si>
-  <si>
-    <t>https://sist.bfsu.edu.cn/info/1401/4971.htm</t>
-  </si>
-  <si>
-    <t>https://yjszs.bfsu.edu.cn/#/examExempted/enroll/sign</t>
   </si>
   <si>
     <t>辽宁大学</t>
@@ -595,7 +557,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF0074C6"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -603,7 +565,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0074C6"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -637,6 +599,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -645,6 +608,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10.5"/>
       <color rgb="FF333333"/>
       <name val="Helvetica"/>
@@ -660,7 +624,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1198,7 +1161,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -1325,35 +1288,38 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1362,103 +1328,103 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1470,15 +1436,18 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1491,16 +1460,19 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1819,886 +1791,886 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="17.7909090909091" customWidth="1"/>
-    <col min="3" max="3" width="31.0454545454545" customWidth="1"/>
+    <col min="2" max="2" width="17.7916666666667" customWidth="1"/>
+    <col min="3" max="3" width="31.0416666666667" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="51.8090909090909" customWidth="1"/>
-    <col min="6" max="6" width="17.4818181818182" customWidth="1"/>
-    <col min="7" max="7" width="16.7818181818182" customWidth="1"/>
-    <col min="8" max="8" width="14.1272727272727"/>
+    <col min="5" max="5" width="51.8083333333333" customWidth="1"/>
+    <col min="6" max="6" width="17.4833333333333" customWidth="1"/>
+    <col min="7" max="7" width="16.7833333333333" customWidth="1"/>
+    <col min="8" max="8" width="14.125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="12">
+    <row r="2" s="1" customFormat="1" spans="1:13">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="15">
         <v>45840</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="17">
         <v>20263300215</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="12"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:13">
-      <c r="A3" s="17">
+      <c r="M2" s="13"/>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:13">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="20">
         <v>45842</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="20">
         <v>45900</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:13">
-      <c r="A4" s="21">
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:13">
+      <c r="A4" s="13">
         <v>4</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="15">
         <v>45848</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="15">
         <v>45918</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="21"/>
+      <c r="M4" s="13"/>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:13">
-      <c r="A5" s="25">
+      <c r="A5" s="22">
         <v>5</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="57" t="s">
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:13">
-      <c r="A6" s="25">
+      <c r="A6" s="22">
         <v>6</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26" t="s">
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="57" t="s">
+      <c r="J6" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
     </row>
     <row r="7" s="4" customFormat="1" spans="1:13">
-      <c r="A7" s="27">
+      <c r="A7" s="25">
         <v>7</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="27">
         <v>45874</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="27">
         <v>45897</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="28">
         <v>20263300074</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="28" t="s">
+      <c r="J7" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="27" t="s">
+      <c r="K7" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
     </row>
     <row r="8" s="4" customFormat="1" spans="1:13">
-      <c r="A8" s="27">
+      <c r="A8" s="25">
         <v>8</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="27">
         <v>45864</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="27">
         <v>45920</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="28">
         <v>26002158</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
     </row>
     <row r="9" s="3" customFormat="1" spans="1:13">
-      <c r="A9" s="25">
+      <c r="A9" s="22">
         <v>9</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="30">
         <v>45867</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="30">
         <v>45879</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="23">
         <v>20263308927</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="58" t="s">
+      <c r="J9" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
     </row>
     <row r="10" s="5" customFormat="1" spans="1:13">
-      <c r="A10" s="33">
+      <c r="A10" s="31">
         <v>10</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="33">
         <v>45857</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="33">
         <v>45901</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="H10" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
     </row>
     <row r="11" s="6" customFormat="1" spans="1:13">
-      <c r="A11" s="37">
+      <c r="A11" s="35">
         <v>11</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39" t="s">
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="39" t="s">
+      <c r="I11" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="38" t="s">
+      <c r="J11" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="37" t="s">
+      <c r="K11" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="37" t="s">
+      <c r="L11" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="37" t="s">
+      <c r="M11" s="35" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:13">
-      <c r="A12" s="17">
+    <row r="12" s="2" customFormat="1" spans="1:13">
+      <c r="A12" s="18">
         <v>12</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="20" t="s">
+      <c r="E12" s="19"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
     </row>
     <row r="13" s="7" customFormat="1" spans="1:13">
-      <c r="A13" s="41">
+      <c r="A13" s="39">
         <v>13</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42">
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40">
         <v>20263301375</v>
       </c>
-      <c r="I13" s="42" t="s">
+      <c r="I13" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="52" t="s">
+      <c r="J13" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="12">
+      <c r="A14" s="41">
         <v>14</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="42">
         <v>45871</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="42">
         <v>45919</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="43">
         <v>20262200196</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="13" t="s">
+      <c r="J14" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
     </row>
     <row r="15" s="8" customFormat="1" spans="1:13">
-      <c r="A15" s="43">
+      <c r="A15" s="44">
         <v>15</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="46">
         <v>45839</v>
       </c>
-      <c r="G15" s="45">
+      <c r="G15" s="46">
         <v>45910</v>
       </c>
-      <c r="H15" s="46" t="s">
+      <c r="H15" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="46" t="s">
+      <c r="I15" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="44" t="s">
+      <c r="J15" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="12">
+      <c r="A16" s="41">
         <v>16</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="47">
+      <c r="F16" s="48">
         <v>45855</v>
       </c>
-      <c r="G16" s="47">
+      <c r="G16" s="48">
         <v>45897</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="41">
         <v>202601506</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="12">
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+    </row>
+    <row r="17" s="4" customFormat="1" spans="1:13">
+      <c r="A17" s="25">
         <v>17</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="47">
+      <c r="F17" s="49">
         <v>45886</v>
       </c>
-      <c r="G17" s="47">
+      <c r="G17" s="49">
         <v>45916</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="25">
         <v>20263312838</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="J17" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
     </row>
     <row r="18" s="9" customFormat="1" spans="1:13">
-      <c r="A18" s="49">
+      <c r="A18" s="50">
         <v>18</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="50" t="s">
+      <c r="E18" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49" t="s">
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="49" t="s">
+      <c r="I18" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="50" t="s">
+      <c r="J18" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="12">
+      <c r="A19" s="41">
         <v>19</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="47">
+      <c r="F19" s="48">
         <v>45901</v>
       </c>
-      <c r="G19" s="47">
+      <c r="G19" s="48">
         <v>45915</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="I19" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="J19" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="12">
+      <c r="A20" s="41">
         <v>20</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12" t="s">
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="J20" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
     </row>
     <row r="21" s="9" customFormat="1" spans="1:13">
-      <c r="A21" s="49">
+      <c r="A21" s="50">
         <v>21</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="50" t="s">
+      <c r="E21" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="51">
+      <c r="F21" s="53">
         <v>45903</v>
       </c>
-      <c r="G21" s="51">
+      <c r="G21" s="53">
         <v>45912</v>
       </c>
-      <c r="H21" s="49" t="s">
+      <c r="H21" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="49" t="s">
+      <c r="I21" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="J21" s="50" t="s">
+      <c r="J21" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="12">
+      <c r="A22" s="41">
         <v>19</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="48" t="s">
+      <c r="E22" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="F22" s="47">
+      <c r="F22" s="48">
         <v>45901</v>
       </c>
-      <c r="G22" s="47">
+      <c r="G22" s="48">
         <v>45915</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="12">
+      <c r="A23" s="41">
         <v>19</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="47">
+      <c r="F23" s="48">
         <v>45901</v>
       </c>
-      <c r="G23" s="47">
+      <c r="G23" s="48">
         <v>45915</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="J23" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="12">
+      <c r="A24" s="41">
         <v>24</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="F24" s="47">
+      <c r="F24" s="48">
         <v>45871</v>
       </c>
-      <c r="G24" s="47">
+      <c r="G24" s="48">
         <v>45903</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="41">
         <v>20253305016</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="I24" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="J24" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
     </row>
     <row r="25" s="7" customFormat="1" spans="1:13">
-      <c r="A25" s="41">
+      <c r="A25" s="39">
         <v>25</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="E25" s="52" t="s">
+      <c r="E25" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="F25" s="53">
+      <c r="F25" s="55">
         <v>45894</v>
       </c>
-      <c r="G25" s="53">
+      <c r="G25" s="55">
         <v>45912</v>
       </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-    </row>
-    <row r="26" s="7" customFormat="1" spans="1:13">
-      <c r="A26" s="41">
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+    </row>
+    <row r="26" s="9" customFormat="1" spans="1:13">
+      <c r="A26" s="50">
         <v>26</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="E26" s="52" t="s">
+      <c r="C26" s="50"/>
+      <c r="D26" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="51" t="s">
         <v>108</v>
       </c>
       <c r="F26" s="53">
@@ -2707,1044 +2679,1016 @@
       <c r="G26" s="53">
         <v>45919</v>
       </c>
-      <c r="H26" s="41" t="s">
+      <c r="H26" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="I26" s="41" t="s">
+      <c r="I26" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="52" t="s">
+      <c r="J26" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="12">
+      <c r="A27" s="41">
         <v>27</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="F27" s="47">
+      <c r="F27" s="48">
         <v>45902</v>
       </c>
-      <c r="G27" s="47">
+      <c r="G27" s="48">
         <v>45915</v>
       </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
     </row>
     <row r="28" s="9" customFormat="1" spans="1:13">
-      <c r="A28" s="49">
+      <c r="A28" s="50">
         <v>28</v>
       </c>
-      <c r="B28" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="C28" s="49" t="s">
+      <c r="B28" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="49" t="s">
+      <c r="D28" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="12" t="s">
+      <c r="E28" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="I28" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="J28" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-    </row>
-    <row r="29" s="2" customFormat="1" spans="1:13">
-      <c r="A29" s="21">
+      <c r="J28" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:13">
+      <c r="A29" s="13">
         <v>29</v>
       </c>
-      <c r="B29" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="C29" s="21" t="s">
+      <c r="B29" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" s="55">
+      <c r="E29" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="57">
         <v>45902</v>
       </c>
-      <c r="G29" s="55">
+      <c r="G29" s="57">
         <v>45915</v>
       </c>
-      <c r="H29" s="21" t="s">
+      <c r="H29" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="21" t="s">
+      <c r="I29" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="K29" s="21" t="s">
+      <c r="J29" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="21" t="s">
+      <c r="L29" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="M29" s="21"/>
+      <c r="M29" s="13"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="12">
+      <c r="A30" s="41">
         <v>30</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="12" t="s">
+      <c r="B30" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="C30" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="F30" s="47">
+      <c r="E30" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="48">
         <v>45902</v>
       </c>
-      <c r="G30" s="47">
+      <c r="G30" s="48">
         <v>45910</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="H30" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="I30" s="12" t="s">
+      <c r="I30" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
+      <c r="J30" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
     </row>
     <row r="31" s="9" customFormat="1" spans="1:13">
-      <c r="A31" s="49">
+      <c r="A31" s="50">
         <v>31</v>
       </c>
-      <c r="B31" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" s="49" t="s">
+      <c r="B31" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="49" t="s">
+      <c r="D31" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="F31" s="51">
+      <c r="E31" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="53">
         <v>45906</v>
       </c>
-      <c r="G31" s="51">
+      <c r="G31" s="53">
         <v>45910</v>
       </c>
-      <c r="H31" s="49" t="s">
+      <c r="H31" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="49" t="s">
+      <c r="I31" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="J31" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49" t="s">
+      <c r="J31" s="51" t="s">
         <v>125</v>
       </c>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="32" s="7" customFormat="1" spans="1:13">
-      <c r="A32" s="41">
+      <c r="A32" s="39">
         <v>32</v>
       </c>
-      <c r="B32" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="C32" s="41" t="s">
+      <c r="B32" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="D32" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="E32" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32" s="53">
+      <c r="E32" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" s="55">
         <v>45903</v>
       </c>
-      <c r="G32" s="53">
+      <c r="G32" s="55">
         <v>45915</v>
       </c>
-      <c r="H32" s="41">
+      <c r="H32" s="39">
         <v>20263304452</v>
       </c>
-      <c r="I32" s="41" t="s">
+      <c r="I32" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J32" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-    </row>
-    <row r="33" s="2" customFormat="1" spans="1:13">
-      <c r="A33" s="21">
+      <c r="J32" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:13">
+      <c r="A33" s="13">
         <v>33</v>
       </c>
-      <c r="B33" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="C33" s="21" t="s">
+      <c r="B33" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="F33" s="55">
+      <c r="E33" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" s="57">
         <v>45905</v>
       </c>
-      <c r="G33" s="55">
+      <c r="G33" s="57">
         <v>45909</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H33" s="13">
         <v>20263311417</v>
       </c>
-      <c r="I33" s="21" t="s">
+      <c r="I33" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J33" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="K33" s="21" t="s">
+      <c r="J33" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="K33" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="21" t="s">
+      <c r="L33" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="M33" s="21"/>
+      <c r="M33" s="13"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="12">
+      <c r="A34" s="41">
         <v>34</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="48" t="s">
+      <c r="C34" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="F34" s="47">
+      <c r="D34" s="41"/>
+      <c r="E34" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="F34" s="48">
         <v>45880</v>
       </c>
-      <c r="G34" s="47">
+      <c r="G34" s="48">
         <v>45910</v>
       </c>
-      <c r="H34" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="I34" s="12" t="s">
+      <c r="H34" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="I34" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="J34" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-    </row>
-    <row r="35" s="2" customFormat="1" spans="1:13">
-      <c r="A35" s="21">
+      <c r="J34" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:13">
+      <c r="A35" s="13">
         <v>35</v>
       </c>
-      <c r="B35" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C35" s="21" t="s">
+      <c r="B35" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="C35" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21">
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13">
         <v>202608849</v>
       </c>
-      <c r="I35" s="21" t="s">
+      <c r="I35" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J35" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="K35" s="21" t="s">
+      <c r="J35" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="K35" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="M35" s="21"/>
+      <c r="L35" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="M35" s="13"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="12">
+      <c r="A36" s="41">
         <v>36</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C36" s="12" t="s">
+      <c r="B36" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="C36" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="F36" s="47">
+      <c r="E36" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="48">
         <v>45904</v>
       </c>
-      <c r="G36" s="47">
+      <c r="G36" s="48">
         <v>45912</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H36" s="41">
         <v>20263327091</v>
       </c>
-      <c r="I36" s="12" t="s">
+      <c r="I36" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="J36" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
+      <c r="J36" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="12">
+      <c r="A37" s="41">
         <v>37</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C37" s="12" t="s">
+      <c r="B37" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="C37" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12" t="s">
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="I37" s="12" t="s">
+      <c r="I37" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="J37" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-    </row>
-    <row r="38" s="7" customFormat="1" spans="1:13">
+      <c r="J37" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+    </row>
+    <row r="38" s="7" customFormat="1" spans="1:15">
       <c r="A38" s="41">
         <v>38</v>
       </c>
       <c r="B38" s="41" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D38" s="41" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="E38" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="F38" s="53">
-        <v>45896</v>
-      </c>
-      <c r="G38" s="53">
-        <v>45910</v>
-      </c>
-      <c r="H38" s="41">
-        <v>20262262722</v>
-      </c>
-      <c r="I38" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="J38" s="52" t="s">
         <v>150</v>
       </c>
+      <c r="F38" s="48">
+        <v>45904</v>
+      </c>
+      <c r="G38" s="48">
+        <v>45913</v>
+      </c>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
       <c r="K38" s="41"/>
       <c r="L38" s="41"/>
       <c r="M38" s="41"/>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="12">
+      <c r="N38"/>
+      <c r="O38"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="41">
         <v>39</v>
       </c>
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="C39" s="41" t="s">
+      <c r="C39" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="D39" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="E39" s="52" t="s">
+      <c r="F39" s="55">
+        <v>45909</v>
+      </c>
+      <c r="G39" s="55">
+        <v>45915</v>
+      </c>
+      <c r="H39" s="39">
+        <v>202602944</v>
+      </c>
+      <c r="I39" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="F39" s="53">
-        <v>45907</v>
-      </c>
-      <c r="G39" s="53">
-        <v>45910</v>
-      </c>
-      <c r="H39" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="I39" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="J39" s="52" t="s">
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="1:13">
+      <c r="A40" s="13">
+        <v>40</v>
+      </c>
+      <c r="B40" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="12">
-        <v>40</v>
-      </c>
-      <c r="B40" s="12" t="s">
+      <c r="C40" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="F40" s="57">
+        <v>45908</v>
+      </c>
+      <c r="G40" s="57">
+        <v>45921</v>
+      </c>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+    </row>
+    <row r="41" s="7" customFormat="1" spans="1:15">
+      <c r="A41" s="41">
+        <v>41</v>
+      </c>
+      <c r="B41" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" s="41" t="s">
         <v>15</v>
-      </c>
-      <c r="E40" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="F40" s="47">
-        <v>45904</v>
-      </c>
-      <c r="G40" s="47">
-        <v>45913</v>
-      </c>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-    </row>
-    <row r="41" s="7" customFormat="1" spans="1:13">
-      <c r="A41" s="12">
-        <v>41</v>
-      </c>
-      <c r="B41" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="C41" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="41" t="s">
-        <v>105</v>
       </c>
       <c r="E41" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="F41" s="53">
-        <v>45909</v>
-      </c>
-      <c r="G41" s="53">
-        <v>45915</v>
-      </c>
-      <c r="H41" s="41">
-        <v>202602944</v>
-      </c>
-      <c r="I41" s="52" t="s">
+      <c r="F41" s="48">
+        <v>45910</v>
+      </c>
+      <c r="G41" s="48">
+        <v>45916</v>
+      </c>
+      <c r="H41" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="I41" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="J41" s="41"/>
       <c r="K41" s="41"/>
       <c r="L41" s="41"/>
       <c r="M41" s="41"/>
+      <c r="N41"/>
+      <c r="O41"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="12">
+      <c r="A42" s="41">
         <v>42</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="C42" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" s="12" t="s">
+      <c r="C42" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="D42" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="F42" s="47">
-        <v>45908</v>
-      </c>
-      <c r="G42" s="47">
-        <v>45921</v>
-      </c>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="13" t="s">
+      <c r="E42" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="12">
+      <c r="F42" s="48">
+        <v>45909</v>
+      </c>
+      <c r="G42" s="48">
+        <v>45922</v>
+      </c>
+      <c r="H42" s="41">
+        <v>202601040</v>
+      </c>
+      <c r="I42" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="J42" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+    </row>
+    <row r="43" s="10" customFormat="1" spans="1:13">
+      <c r="A43" s="59">
         <v>43</v>
       </c>
-      <c r="B43" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C43" s="12" t="s">
+      <c r="B43" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="C43" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="48" t="s">
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59">
+        <v>20263309395</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F43" s="47">
-        <v>45910</v>
-      </c>
-      <c r="G43" s="47">
-        <v>45916</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J43" s="13" t="s">
+      <c r="K43" s="59"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="59"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="41">
+        <v>44</v>
+      </c>
+      <c r="B44" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="12">
-        <v>44</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="D44" s="12" t="s">
+      <c r="C44" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="48" t="s">
-        <v>170</v>
-      </c>
-      <c r="F44" s="47">
-        <v>45909</v>
-      </c>
-      <c r="G44" s="47">
-        <v>45922</v>
-      </c>
-      <c r="H44" s="12">
-        <v>202601040</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J44" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="41"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="12">
+      <c r="A45" s="41">
         <v>45</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12">
-        <v>20263309395</v>
-      </c>
-      <c r="I45" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J45" t="s">
-        <v>173</v>
-      </c>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="41"/>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="12">
+      <c r="A46" s="41">
         <v>46</v>
       </c>
-      <c r="B46" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="12">
+      <c r="A47" s="41">
         <v>47</v>
       </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="12">
+      <c r="A48" s="41">
         <v>48</v>
       </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="41"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="12">
+      <c r="A49" s="41">
         <v>49</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="41"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="41"/>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="41"/>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="41"/>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="41"/>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="41"/>
+      <c r="M54" s="41"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="41"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="41"/>
+      <c r="M56" s="41"/>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="41"/>
+      <c r="L57" s="41"/>
+      <c r="M57" s="41"/>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="41"/>
+      <c r="L58" s="41"/>
+      <c r="M58" s="41"/>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="41"/>
+      <c r="J59" s="41"/>
+      <c r="K59" s="41"/>
+      <c r="L59" s="41"/>
+      <c r="M59" s="41"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="41"/>
+      <c r="K60" s="41"/>
+      <c r="L60" s="41"/>
+      <c r="M60" s="41"/>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="41"/>
+      <c r="K61" s="41"/>
+      <c r="L61" s="41"/>
+      <c r="M61" s="41"/>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
+      <c r="A62" s="41"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="41"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="41"/>
+      <c r="J62" s="41"/>
+      <c r="K62" s="41"/>
+      <c r="L62" s="41"/>
+      <c r="M62" s="41"/>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="41"/>
+      <c r="J63" s="41"/>
+      <c r="K63" s="41"/>
+      <c r="L63" s="41"/>
+      <c r="M63" s="41"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
+      <c r="A64" s="41"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="41"/>
+      <c r="I64" s="41"/>
+      <c r="J64" s="41"/>
+      <c r="K64" s="41"/>
+      <c r="L64" s="41"/>
+      <c r="M64" s="41"/>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
-      <c r="L65" s="12"/>
-      <c r="M65" s="12"/>
+      <c r="A65" s="41"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="41"/>
+      <c r="K65" s="41"/>
+      <c r="L65" s="41"/>
+      <c r="M65" s="41"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="12"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="12"/>
-      <c r="M66" s="12"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="41"/>
+      <c r="J66" s="41"/>
+      <c r="K66" s="41"/>
+      <c r="L66" s="41"/>
+      <c r="M66" s="41"/>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
-      <c r="L67" s="12"/>
-      <c r="M67" s="12"/>
+      <c r="A67" s="41"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="41"/>
+      <c r="K67" s="41"/>
+      <c r="L67" s="41"/>
+      <c r="M67" s="41"/>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="12"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
+      <c r="A68" s="41"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="41"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="41"/>
+      <c r="I68" s="41"/>
+      <c r="J68" s="41"/>
+      <c r="K68" s="41"/>
+      <c r="L68" s="41"/>
+      <c r="M68" s="41"/>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="12"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
+      <c r="A69" s="41"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="41"/>
+      <c r="F69" s="41"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="41"/>
+      <c r="I69" s="41"/>
+      <c r="J69" s="41"/>
+      <c r="K69" s="41"/>
+      <c r="L69" s="41"/>
+      <c r="M69" s="41"/>
     </row>
     <row r="70" spans="1:13">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
+      <c r="A70" s="41"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="41"/>
+      <c r="J70" s="41"/>
+      <c r="K70" s="41"/>
+      <c r="L70" s="41"/>
+      <c r="M70" s="41"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3810,22 +3754,19 @@
     <hyperlink ref="J36" r:id="rId56" display="https://yjszs-ks.ecnu.edu.cn/logon"/>
     <hyperlink ref="J35" r:id="rId57" display="https://yz.ecust.edu.cn/Default.aspx"/>
     <hyperlink ref="J37" r:id="rId58" display="https://ehall.szu.edu.cn/geapp/sys/sdyjszsxt/*default/index.do#/xlysq"/>
-    <hyperlink ref="J38" r:id="rId59" display="https://gsas.fudan.edu.cn/tm/tm/index"/>
-    <hyperlink ref="E38" r:id="rId60" display="http://www.it.fudan.edu.cn/Data/View/4900" tooltip="http://www.it.fudan.edu.cn/Data/View/4900"/>
-    <hyperlink ref="J39" r:id="rId61" display="https://yjszs.bfsu.edu.cn/#/examExempted/enroll/sign"/>
-    <hyperlink ref="E39" r:id="rId62" display="https://sist.bfsu.edu.cn/info/1401/4971.htm"/>
-    <hyperlink ref="E34" r:id="rId63" display="https://is.cas.cn/yjsjy2016/zsxx2016/202508/t20250811_7902397.html"/>
-    <hyperlink ref="E40" r:id="rId64" display="https://sist.lnu.edu.cn/info/12675/2112.htm"/>
-    <hyperlink ref="E41" r:id="rId65" display="https://bm.cugb.edu.cn/yjsyzsb/c/2025-09-09/831681.shtml"/>
-    <hyperlink ref="I41" r:id="rId66" display="https://bdyzb.cugb.edu.cn/tp/zs/login/toLogin/tm" tooltip="https://bdyzb.cugb.edu.cn/tp/zs/login/toLogin/tm"/>
-    <hyperlink ref="J42" r:id="rId67" display="https://yjszs.hrbeu.edu.cn/recommended/index.html"/>
-    <hyperlink ref="E42" r:id="rId68" display="https://cstc.hrbeu.edu.cn/2025/0908/c3688a340748/page.htm"/>
-    <hyperlink ref="E43" r:id="rId69" display="https://ceai.njnu.edu.cn/info/1551/18741.htm"/>
-    <hyperlink ref="J43" r:id="rId70" display="https://yz.njnu.edu.cn/pages/sstm/sstm_regSuccess.jsp?dt=1757500654759"/>
-    <hyperlink ref="J44" r:id="rId71" display="http://yzgmis.jiangnan.edu.cn/zsgl/tmsgl/result.aspx"/>
-    <hyperlink ref="E44" r:id="rId72" display="https://yz.jiangnan.edu.cn/info/1012/3674.htm"/>
-    <hyperlink ref="J32" r:id="rId73" display="https://yzbm.hfut.edu.cn/logon"/>
-    <hyperlink ref="J45" r:id="rId74" display="东华大学研究生报考服务系统" tooltip="https://yzbm.dhu.edu.cn/logon"/>
+    <hyperlink ref="E34" r:id="rId59" display="https://is.cas.cn/yjsjy2016/zsxx2016/202508/t20250811_7902397.html"/>
+    <hyperlink ref="J32" r:id="rId60" display="https://yzbm.hfut.edu.cn/logon"/>
+    <hyperlink ref="E38" r:id="rId61" display="https://sist.lnu.edu.cn/info/12675/2112.htm"/>
+    <hyperlink ref="E39" r:id="rId62" display="https://bm.cugb.edu.cn/yjsyzsb/c/2025-09-09/831681.shtml"/>
+    <hyperlink ref="I39" r:id="rId63" display="https://bdyzb.cugb.edu.cn/tp/zs/login/toLogin/tm" tooltip="https://bdyzb.cugb.edu.cn/tp/zs/login/toLogin/tm"/>
+    <hyperlink ref="J40" r:id="rId64" display="https://yjszs.hrbeu.edu.cn/recommended/index.html"/>
+    <hyperlink ref="E40" r:id="rId65" display="https://cstc.hrbeu.edu.cn/2025/0908/c3688a340748/page.htm"/>
+    <hyperlink ref="E41" r:id="rId66" display="https://ceai.njnu.edu.cn/info/1551/18741.htm"/>
+    <hyperlink ref="J41" r:id="rId67" display="https://yz.njnu.edu.cn/pages/sstm/sstm_regSuccess.jsp?dt=1757500654759"/>
+    <hyperlink ref="J42" r:id="rId68" display="http://yzgmis.jiangnan.edu.cn/zsgl/tmsgl/result.aspx"/>
+    <hyperlink ref="E42" r:id="rId69" display="https://yz.jiangnan.edu.cn/info/1012/3674.htm"/>
+    <hyperlink ref="J43" r:id="rId70" display="东华大学研究生报考服务系统" tooltip="https://yzbm.dhu.edu.cn/logon"/>
+    <hyperlink ref="J27" r:id="rId71" display="http://swu.yjszsw.cn/tm/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3842,7 +3783,7 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3859,7 +3800,7 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/预推免院校/汇总.xlsx
+++ b/预推免院校/汇总.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12960"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1793,19 +1793,19 @@
   <sheetPr/>
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="17.7916666666667" customWidth="1"/>
-    <col min="3" max="3" width="31.0416666666667" customWidth="1"/>
+    <col min="2" max="2" width="17.7909090909091" customWidth="1"/>
+    <col min="3" max="3" width="31.0454545454545" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="51.8083333333333" customWidth="1"/>
-    <col min="6" max="6" width="17.4833333333333" customWidth="1"/>
-    <col min="7" max="7" width="16.7833333333333" customWidth="1"/>
-    <col min="8" max="8" width="14.125"/>
+    <col min="5" max="5" width="51.8090909090909" customWidth="1"/>
+    <col min="6" max="6" width="17.4818181818182" customWidth="1"/>
+    <col min="7" max="7" width="16.7818181818182" customWidth="1"/>
+    <col min="8" max="8" width="14.1272727272727"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="H27" s="41"/>
       <c r="I27" s="41"/>
-      <c r="J27" s="52" t="s">
+      <c r="J27" s="24" t="s">
         <v>112</v>
       </c>
       <c r="K27" s="41"/>
@@ -3040,34 +3040,34 @@
       <c r="L36" s="41"/>
       <c r="M36" s="41"/>
     </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="41">
+    <row r="37" s="10" customFormat="1" spans="1:13">
+      <c r="A37" s="59">
         <v>37</v>
       </c>
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C37" s="41" t="s">
+      <c r="C37" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="D37" s="41" t="s">
+      <c r="D37" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41" t="s">
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I37" s="41" t="s">
+      <c r="I37" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J37" s="52" t="s">
+      <c r="J37" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="59"/>
     </row>
     <row r="38" s="7" customFormat="1" spans="1:15">
       <c r="A38" s="41">
@@ -3238,8 +3238,8 @@
       <c r="L42" s="41"/>
       <c r="M42" s="41"/>
     </row>
-    <row r="43" s="10" customFormat="1" spans="1:13">
-      <c r="A43" s="59">
+    <row r="43" s="1" customFormat="1" spans="1:13">
+      <c r="A43" s="13">
         <v>43</v>
       </c>
       <c r="B43" s="13" t="s">
@@ -3251,10 +3251,10 @@
       <c r="D43" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59">
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13">
         <v>20263309395</v>
       </c>
       <c r="I43" s="13" t="s">
@@ -3263,9 +3263,9 @@
       <c r="J43" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="K43" s="59"/>
-      <c r="L43" s="59"/>
-      <c r="M43" s="59"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="41">
@@ -3783,7 +3783,7 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3800,7 +3800,7 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
